--- a/Assets/Resources/Datas/InfiniteStage.xlsx
+++ b/Assets/Resources/Datas/InfiniteStage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Arthur\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167C129A-A35C-462D-99D9-5CB46A58146B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4781E55B-1B7A-4457-BF99-AFE961AD5E90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18990" windowHeight="13530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24450" yWindow="1020" windowWidth="23625" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="10">
   <si>
     <t>몬스터 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>InfiniteStage2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -429,7 +433,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -440,7 +444,159 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -452,10 +608,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAF5A99-3515-44F0-A850-DD708CE03BE2}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -494,7 +650,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -502,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -510,7 +666,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -518,7 +674,103 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Datas/InfiniteStage.xlsx
+++ b/Assets/Resources/Datas/InfiniteStage.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Arthur\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4781E55B-1B7A-4457-BF99-AFE961AD5E90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897F61D0-D438-44BC-BB8D-7BD63A9DCF74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24450" yWindow="1020" windowWidth="23625" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Stage1" sheetId="3" r:id="rId1"/>
+    <sheet name="Stage2" sheetId="2" r:id="rId2"/>
+    <sheet name="Stage3" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="16">
   <si>
     <t>몬스터 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +66,30 @@
   </si>
   <si>
     <t>Changer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스폰 일시정지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsStopSpawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snake</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,214 +414,374 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE1AF23-78DE-4320-9052-FED04C377CDF}">
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>31</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>35</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25">
-        <v>36</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>45</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -608,52 +793,542 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAF5A99-3515-44F0-A850-DD708CE03BE2}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B20"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57">
+        <v>58</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -661,7 +1336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -669,7 +1344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -677,7 +1352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -685,7 +1360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -693,7 +1368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -701,7 +1376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -709,7 +1384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -717,7 +1392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -725,7 +1400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -733,7 +1408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -771,6 +1446,46 @@
       </c>
       <c r="B20">
         <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
